--- a/docs/StructureDefinition-backport-subscription-topic-canonical-urls.xlsx
+++ b/docs/StructureDefinition-backport-subscription-topic-canonical-urls.xlsx
@@ -261,7 +261,7 @@
 </t>
   </si>
   <si>
-    <t>Slice on name</t>
+    <t>Slice on parameter name</t>
   </si>
   <si>
     <t>open</t>
@@ -579,7 +579,7 @@
     <col min="25" max="25" width="35.90234375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="23.43359375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
@@ -2521,10 +2521,10 @@
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="S19" t="s" s="2">
         <v>38</v>
